--- a/Industry/201612-201908/HKD/MILLION/Analysis_123_29.4 - Complete Clocks (SITC 885.7)_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_123_29.4 - Complete Clocks (SITC 885.7)_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="1152" yWindow="1152"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -15986,6 +15987,517 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="9"/>
+    <col bestFit="1" customWidth="1" max="9" min="3" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1095.146</v>
+      </c>
+      <c r="C2" t="n">
+        <v>898.187</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-17.985</v>
+      </c>
+      <c r="E2" t="n">
+        <v>472.703</v>
+      </c>
+      <c r="F2" t="n">
+        <v>725.732</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-19.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>511.59</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.227</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" t="n">
+        <v>509.218</v>
+      </c>
+      <c r="C3" t="n">
+        <v>412.882</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-18.918</v>
+      </c>
+      <c r="E3" t="n">
+        <v>231.276</v>
+      </c>
+      <c r="F3" t="n">
+        <v>347.441</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-15.85</v>
+      </c>
+      <c r="H3" t="n">
+        <v>207.168</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-10.424</v>
+      </c>
+      <c r="J3" t="n">
+        <v>46.498</v>
+      </c>
+      <c r="K3" t="n">
+        <v>45.968</v>
+      </c>
+      <c r="L3" t="n">
+        <v>48.926</v>
+      </c>
+      <c r="M3" t="n">
+        <v>47.875</v>
+      </c>
+      <c r="N3" t="n">
+        <v>40.495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" t="n">
+        <v>313.856</v>
+      </c>
+      <c r="C4" t="n">
+        <v>263.03</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-16.194</v>
+      </c>
+      <c r="E4" t="n">
+        <v>141.513</v>
+      </c>
+      <c r="F4" t="n">
+        <v>224.958</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-14.474</v>
+      </c>
+      <c r="H4" t="n">
+        <v>144.437</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.066</v>
+      </c>
+      <c r="J4" t="n">
+        <v>28.659</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29.285</v>
+      </c>
+      <c r="L4" t="n">
+        <v>29.937</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30.997</v>
+      </c>
+      <c r="N4" t="n">
+        <v>28.233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" t="n">
+        <v>29.44</v>
+      </c>
+      <c r="C5" t="n">
+        <v>33.742</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.616</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="F5" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-12.811</v>
+      </c>
+      <c r="H5" t="n">
+        <v>94.483</v>
+      </c>
+      <c r="I5" t="n">
+        <v>410.174</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.688</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.757</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.918</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.054</v>
+      </c>
+      <c r="N5" t="n">
+        <v>18.468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" t="n">
+        <v>222.874</v>
+      </c>
+      <c r="C6" t="n">
+        <v>169.35</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-24.015</v>
+      </c>
+      <c r="E6" t="n">
+        <v>70.398</v>
+      </c>
+      <c r="F6" t="n">
+        <v>108.545</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-35.905</v>
+      </c>
+      <c r="H6" t="n">
+        <v>58.687</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-16.635</v>
+      </c>
+      <c r="J6" t="n">
+        <v>20.351</v>
+      </c>
+      <c r="K6" t="n">
+        <v>18.855</v>
+      </c>
+      <c r="L6" t="n">
+        <v>14.893</v>
+      </c>
+      <c r="M6" t="n">
+        <v>14.957</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11.472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.837</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-3.279</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.985</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.225</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-37.827</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.137</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-40.769</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.401</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.652</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.478</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.271</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.8090000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.556</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-31.356</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.545</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.837</v>
+      </c>
+      <c r="G8" t="n">
+        <v>175.736</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-51.89</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.138</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-25.995</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-40.911</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="I9" t="n">
+        <v>36.083</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.697</v>
+      </c>
+      <c r="D10" t="n">
+        <v>160.541</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-53.656</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I10" t="n">
+        <v>388.483</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-28.372</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-56.432</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I11" t="n">
+        <v>33.377</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
     <col bestFit="1" customWidth="1" max="9" min="2" width="8"/>
   </cols>
   <sheetData>
